--- a/Assets/Excels/Games/WPG/WPGHint.xlsx
+++ b/Assets/Excels/Games/WPG/WPGHint.xlsx
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -396,6 +396,70 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
